--- a/biology/Histoire de la zoologie et de la botanique/John_Walker_(1731-1803)/John_Walker_(1731-1803).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Walker_(1731-1803)/John_Walker_(1731-1803).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Revd Dr John Walker (1731–1803) était un professeur d'histoire naturelle de l'université d'Édimbourg de 1779 à 1803. C'était un des protégés du chimiste William Cullen et un collègue de Dugald Stewart (1753-1828), Joseph Black (1728-1799) et plusieurs autres professeurs d’Édimbourg qui façonnèrent le milieu intellectuel de la fin de la période des Lumières écossaises.
 Durant sa longue carrière, il devint un chimiste, botaniste, minéralogiste et géologue renommé. Il devint également ministre de l'Église d'Écosse dont il fut le modérateur de l'assemblée générale en 1790. Il est un des membres fondateurs de la Royal Society of Edinburgh.
@@ -515,7 +527,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « John Walker (naturalist) » (voir la liste des auteurs).
 M. D. Eddy, 'The University of Edinburgh Natural History Class Lists', Archives of Natural History, 30 (2003), 97-117.
